--- a/data/trans_dic/P3A$pareja-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$pareja-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 12,17</t>
+          <t>3,47; 11,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,79</t>
+          <t>6,67; 15,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 11,42</t>
+          <t>5,27; 11,21</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,59; 44,33</t>
+          <t>32,17; 44,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,79; 27,99</t>
+          <t>14,61; 28,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,03; 33,94</t>
+          <t>22,53; 34,04</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>56,13; 64,69</t>
+          <t>56,04; 64,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 40,05</t>
+          <t>26,13; 39,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,57; 50,38</t>
+          <t>40,34; 50,56</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,26; 56,43</t>
+          <t>17,99; 56,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,91; 32,04</t>
+          <t>24,82; 32,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,52; 42,72</t>
+          <t>20,62; 42,59</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>55,68; 63,4</t>
+          <t>55,34; 63,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,22; 24,85</t>
+          <t>19,56; 24,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,73; 43,53</t>
+          <t>38,47; 43,72</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>55,17; 63,34</t>
+          <t>55,21; 63,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,08; 14,44</t>
+          <t>3,85; 14,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,05; 36,35</t>
+          <t>14,02; 36,59</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,37; 53,38</t>
+          <t>43,16; 52,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,72</t>
+          <t>4,51; 7,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,71; 25,62</t>
+          <t>20,36; 25,34</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>35,11; 49,05</t>
+          <t>34,93; 49,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,79; 22,52</t>
+          <t>16,91; 22,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,74; 34,79</t>
+          <t>28,08; 34,81</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que la pareja de la persona entrevistada se ocupa principalmente de las tareas domésticas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25580</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31240</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>56820</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13874; 46939</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20885; 48510</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>37583; 79967</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>160036</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>117789</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>277825</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>136262; 187420</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>74837; 143366</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>210830; 318453</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>324125</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>207944</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>532068</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>300569; 347885</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>154677; 233556</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>455171; 570508</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>356045</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>207519</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>563564</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>159729; 502796</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>176753; 229674</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>329982; 681373</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>334610</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>120643</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>455252</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>310575; 354317</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>107171; 135055</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>426737; 484944</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>217787</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>55392</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>273179</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>202642; 233059</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>23397; 88204</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>136679; 356752</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>136768</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>25245</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>162013</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>122041; 149331</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>19212; 32430</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>144300; 179555</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2979</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1554951</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>765770</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2320721</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1208113; 1697451</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>627449; 836915</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2013590; 2495759</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>